--- a/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">DIRECCIÓN </t>
   </si>
@@ -60,9 +60,6 @@
     <t>N° DE SERIE</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPRESA: </t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>TÉCNICO QUE RECIBE:</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,14 +922,14 @@
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="T5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1076,7 +1079,7 @@
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1154,7 +1157,7 @@
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1232,7 +1235,7 @@
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1388,7 +1391,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1466,7 +1469,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1544,7 +1547,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1622,7 +1625,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1772,7 +1775,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1846,7 +1849,7 @@
     <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1919,7 +1922,7 @@
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -1991,7 +1994,7 @@
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2266,36 +2269,39 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="34"/>
       <c r="AA42" s="32" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB42" s="33"/>
       <c r="AC42" s="33"/>
       <c r="AD42" s="34"/>
       <c r="AE42" s="32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AF42" s="33"/>
       <c r="AG42" s="33"/>
       <c r="AH42" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="L25:AG25"/>
     <mergeCell ref="L31:AG31"/>
     <mergeCell ref="L27:AG27"/>
     <mergeCell ref="L29:AG29"/>
     <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="D42:Z42"/>
     <mergeCell ref="AA42:AD42"/>
     <mergeCell ref="L33:AG33"/>
     <mergeCell ref="L35:AG37"/>
+    <mergeCell ref="D42:V42"/>
+    <mergeCell ref="W42:Z42"/>
     <mergeCell ref="L15:AG15"/>
     <mergeCell ref="L17:AG17"/>
     <mergeCell ref="L19:AG19"/>

--- a/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
@@ -93,13 +93,13 @@
     <t>Salida por Venta</t>
   </si>
   <si>
-    <t>TÉCNICO QUE RECIBE:</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>TÉCNICO RESPONSABLE:</t>
   </si>
 </sst>
 </file>
@@ -436,18 +436,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,48 +498,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B2:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L15" sqref="L15:AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,28 +928,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -970,21 +970,21 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="24"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -1089,7 +1089,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="30"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1167,7 +1167,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="30"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1245,7 +1245,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="30"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -1323,7 +1323,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="30"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -1401,7 +1401,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="30"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -1469,7 +1469,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1479,7 +1479,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="30"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -1557,7 +1557,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1635,7 +1635,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -1713,7 +1713,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -1785,7 +1785,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1859,7 +1859,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="30"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -1932,7 +1932,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="30"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
@@ -2004,28 +2004,28 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="37"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="32"/>
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,28 +2039,28 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="40"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="35"/>
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -2074,28 +2074,28 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="43"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="38"/>
       <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="2:34" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,52 +2245,62 @@
       <c r="AH41" s="21"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="32" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="32" t="s">
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="34"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="L13:AG13"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L23:AG23"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="L25:AG25"/>
     <mergeCell ref="L31:AG31"/>
@@ -2302,16 +2312,6 @@
     <mergeCell ref="L35:AG37"/>
     <mergeCell ref="D42:V42"/>
     <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L23:AG23"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="L13:AG13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/SalidaVenta.xlsx
@@ -72,9 +72,6 @@
     <t>DESTINO:</t>
   </si>
   <si>
-    <t>TRANSPORTE:</t>
-  </si>
-  <si>
     <t>CONTACTO:</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>TÉCNICO RESPONSABLE:</t>
+  </si>
+  <si>
+    <t>MEDIO DE ENVÍO:</t>
   </si>
 </sst>
 </file>
@@ -436,18 +436,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,21 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:AG15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,28 +928,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
+      <c r="C6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -970,21 +970,21 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="40"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -1089,7 +1089,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1167,7 +1167,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1245,7 +1245,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -1323,7 +1323,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -1401,7 +1401,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -1469,7 +1469,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1479,7 +1479,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -1547,7 +1547,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1557,7 +1557,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1625,7 +1625,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1635,7 +1635,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -1703,7 +1703,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1713,7 +1713,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -1775,7 +1775,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1785,7 +1785,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1859,7 +1859,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -1922,7 +1922,7 @@
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -1932,7 +1932,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
@@ -1994,7 +1994,7 @@
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2004,28 +2004,28 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="32"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="37"/>
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,28 +2039,28 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="35"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="40"/>
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -2074,28 +2074,28 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="38"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="43"/>
       <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="2:34" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,62 +2245,52 @@
       <c r="AH41" s="21"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="27" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="27" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="27" t="s">
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="29"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L23:AG23"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="L25:AG25"/>
     <mergeCell ref="L31:AG31"/>
@@ -2312,6 +2302,16 @@
     <mergeCell ref="L35:AG37"/>
     <mergeCell ref="D42:V42"/>
     <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L23:AG23"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="L13:AG13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
